--- a/building-cost.xlsx
+++ b/building-cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1095166\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E936770A-CE69-4ACF-9554-95571C124393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE75055-7E81-4FF2-AFC0-0C8D0C07E35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E208659D-75CE-44D6-B181-48FE00BCB198}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,6 +905,9 @@
       <c r="C23">
         <v>0</v>
       </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -915,9 +918,6 @@
       </c>
       <c r="C24">
         <v>35000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
